--- a/servers_10000.xlsx
+++ b/servers_10000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SRVOJ9VH4</t>
+          <t>SRV1E8HCO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Server9FZRWP</t>
+          <t>Server1C714Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,43 +503,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>192.168.100.7</t>
+          <t>192.168.100.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Generated server 7</t>
+          <t>Generated server 2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>US-East</t>
+          <t>Asia-Pacific</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CentOS 7</t>
+          <t>Windows Server 2019</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SRVRO0QAB</t>
+          <t>SRVYOV4FG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ServerA8TXXG</t>
+          <t>ServerMV9UER</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -549,17 +549,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>192.168.100.8</t>
+          <t>192.168.100.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Generated server 8</t>
+          <t>Generated server 3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Asia-Pacific</t>
+          <t>US-West</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -568,24 +568,24 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SRVOFZY79</t>
+          <t>SRVYOTJA2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ServerYZHN0C</t>
+          <t>ServerPNTGFW</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>192.168.100.9</t>
+          <t>192.168.100.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Generated server 9</t>
+          <t>Generated server 4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EU-Central</t>
+          <t>US-East</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Debian 11</t>
+          <t>CentOS 7</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
         <v>500</v>
@@ -626,12 +626,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SRV66ZY27</t>
+          <t>SRVHTT3AX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Server72MHSN</t>
+          <t>ServerL5BIKB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -641,17 +641,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>192.168.100.10</t>
+          <t>192.168.100.5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Generated server 10</t>
+          <t>Generated server 5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Asia-Pacific</t>
+          <t>EU-Central</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -663,10 +663,240 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
+        <v>32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SRV22Q9N1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ServerXSX3RS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>192.168.100.6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Generated server 6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EU-Central</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CentOS 7</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
         <v>16</v>
       </c>
-      <c r="J5" t="n">
-        <v>500</v>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SRVG6DSPH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Server0S1SUX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>192.168.100.7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Generated server 7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Windows Server 2019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SRVUOYYT7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Server25HXG5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>192.168.100.8</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Generated server 8</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>US-West</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ubuntu 20.04</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SRVNASAWS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ServerGJ1DNC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>192.168.100.9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Generated server 9</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>US-West</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ubuntu 20.04</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SRVZYIC7K</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ServerWLH038</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>192.168.100.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Generated server 10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>EU-Central</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ubuntu 20.04</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/servers_10000.xlsx
+++ b/servers_10000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,31 +469,16 @@
           <t>os</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cpu</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ram</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>disk</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SRVUW1U3E</t>
+          <t>SRVPLRO7A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ServerJQ4EUZ</t>
+          <t>ServerON1TKN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,12 +488,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>192.168.100.2</t>
+          <t>192.168.100.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Generated server 2</t>
+          <t>Generated server 1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -518,28 +503,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Windows Server 2019</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32</v>
-      </c>
-      <c r="J2" t="n">
-        <v>250</v>
+          <t>CentOS 7</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SRVP5UJXY</t>
+          <t>SRV180965</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Server3MK3CP</t>
+          <t>ServerDHBXA2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -549,43 +525,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>192.168.100.3</t>
+          <t>192.168.100.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Generated server 3</t>
+          <t>Generated server 2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EU-Central</t>
+          <t>US-East</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Windows Server 2019</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>500</v>
+          <t>Debian 11</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SRV1O7EPM</t>
+          <t>SRV9D2YPS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Server2UR8EL</t>
+          <t>Server74QXL1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -595,43 +562,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>192.168.100.4</t>
+          <t>192.168.100.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Generated server 4</t>
+          <t>Generated server 3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>US-East</t>
+          <t>EU-Central</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ubuntu 20.04</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>500</v>
+          <t>CentOS 7</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SRVYH22R3</t>
+          <t>SRV8TBX6T</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ServerTDNAFA</t>
+          <t>ServerBFM6NI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -641,43 +599,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>192.168.100.5</t>
+          <t>192.168.100.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Generated server 5</t>
+          <t>Generated server 4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EU-Central</t>
+          <t>US-East</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ubuntu 20.04</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>250</v>
+          <t>Windows Server 2019</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SRVCXG172</t>
+          <t>SRVSO82MD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ServerK1OCZ8</t>
+          <t>ServerWS4ZBJ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -687,12 +636,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>192.168.100.6</t>
+          <t>192.168.100.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Generated server 6</t>
+          <t>Generated server 5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -702,28 +651,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Windows Server 2019</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
-      </c>
-      <c r="I6" t="n">
-        <v>32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>500</v>
+          <t>Ubuntu 20.04</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SRV7BL8PB</t>
+          <t>SRV1788KR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ServerD2JZMY</t>
+          <t>ServerZHHL2M</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -733,43 +673,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>192.168.100.7</t>
+          <t>192.168.100.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Generated server 7</t>
+          <t>Generated server 6</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>US-East</t>
+          <t>US-West</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CentOS 7</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>16</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1000</v>
+          <t>Debian 11</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SRV3SW8TJ</t>
+          <t>SRVHDQSMU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ServerNDVDWU</t>
+          <t>Server8DMTNU</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -779,43 +710,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>192.168.100.8</t>
+          <t>192.168.100.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Generated server 8</t>
+          <t>Generated server 7</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EU-Central</t>
+          <t>Asia-Pacific</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Windows Server 2019</t>
         </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SRVDMMXAE</t>
+          <t>SRVXL8OLQ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Server71ECKN</t>
+          <t>ServerMU2PV3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -825,43 +747,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>192.168.100.9</t>
+          <t>192.168.100.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Generated server 9</t>
+          <t>Generated server 8</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EU-Central</t>
+          <t>US-West</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CentOS 7</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>16</v>
-      </c>
-      <c r="J9" t="n">
-        <v>500</v>
+          <t>Windows Server 2019</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SRVS5L7ON</t>
+          <t>SRV5VI861</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ServerYMWAAE</t>
+          <t>ServerETOHLZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -871,32 +784,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>192.168.100.10</t>
+          <t>192.168.100.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Generated server 10</t>
+          <t>Generated server 9</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>US-West</t>
+          <t>Asia-Pacific</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Debian 11</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1000</v>
+          <t>Windows Server 2019</t>
+        </is>
       </c>
     </row>
   </sheetData>
